--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1529</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1529</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1529</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01006085872650147</v>
+        <v>1549</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 1, 23, 4, 13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 23 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0153815746307373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1407</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>1407</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1407</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00999002456665039</v>
+        <v>1767</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 21 -&gt; 12 -&gt; 8 -&gt; 2 -&gt; 27 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01534032821655273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1898</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1898</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01209364732106527</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1685</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1685</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1685</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01193352540334066</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1196</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1196</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0117362896601359</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1395</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1395</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1395</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01191890239715576</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2373</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2373</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2373</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01232321262359619</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2065</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2065</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2065</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01227653026580811</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01423399448394775</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2070</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2070</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2070</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01518439451853434</v>
+        <v>1751</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 17 -&gt; 20 -&gt; 32 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01517939567565918</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
@@ -454,7 +454,7 @@
         <v>1549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01145005226135254</v>
+        <v>0.01213669776916504</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01084530353546143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>911</v>
+      </c>
+      <c r="D3" t="n">
+        <v>911</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01063434282938639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0124152421951294</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1430</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0123185396194458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1198</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0126118262608846</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>1549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01213669776916504</v>
+      <c r="B7" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1284</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01239616870880127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0126328706741333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01213558514912923</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01232256094614665</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01234435240427653</v>
       </c>
     </row>
   </sheetData>
